--- a/data/long_dif/P31-Urba-long_dif.xlsx
+++ b/data/long_dif/P31-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>34,94%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,28%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,06; 49,38</t>
+          <t>38,48; 50,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,62; 47,85</t>
+          <t>35,85; 46,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,42</t>
+          <t>27,88; 40,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,68; 37,41</t>
+          <t>32,2; 43,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,79; 48,54</t>
+          <t>40,32; 49,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,25; 41,09</t>
+          <t>31,21; 38,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31,61; 41,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31,51; 42,17</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40,5; 48,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34,84; 41,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31,43; 39,65</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33,58; 40,9</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,9</t>
+          <t>15,18; 23,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,3; 22,78</t>
+          <t>14,68; 22,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 25,46</t>
+          <t>7,49; 14,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,86; 30,97</t>
+          <t>12,84; 22,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,7; 23,71</t>
+          <t>17,54; 25,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 25,07</t>
+          <t>21,42; 29,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12,19; 21,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 26,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17,57; 23,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,99; 24,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 16,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 22,42</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>40,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42,13%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>43,5%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,88; 41,97</t>
+          <t>31,91; 43,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,12; 45,1</t>
+          <t>35,46; 45,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,08; 39,2</t>
+          <t>48,27; 63,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,19</t>
+          <t>39,42; 51,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,68</t>
+          <t>29,1; 38,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,32; 43,94</t>
+          <t>36,42; 44,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41,52; 52,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 47,6</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31,8; 39,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 43,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46,7; 55,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39,68; 47,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,11; 51,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,01; 38,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,69; 49,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,58; 39,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,77; 48,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,43; 37,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>35,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,37%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36,18%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,57</t>
+          <t>36,25; 49,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 29,04</t>
+          <t>28,45; 39,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,38; 32,2</t>
+          <t>27,84; 41,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,28; 28,53</t>
+          <t>24,14; 46,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,18; 27,72</t>
+          <t>38,51; 49,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,25; 27,37</t>
+          <t>30,83; 40,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,31; 43,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 51,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39,03; 47,62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 37,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32,1; 40,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>30,58; 46,47</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>24,11%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,93; 41,83</t>
+          <t>16,3; 26,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 49,27</t>
+          <t>18,97; 28,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,04; 34,66</t>
+          <t>13,55; 24,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,39; 46,07</t>
+          <t>9,17; 22,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,21; 36,21</t>
+          <t>20,9; 31,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,46; 45,43</t>
+          <t>19,87; 28,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 27,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 30,64</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20,36; 27,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 26,93</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 23,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 24,49</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>40,54%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>41,38%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,43; 59,45</t>
+          <t>30,07; 42,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,94; 38,33</t>
+          <t>37,59; 49,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,53; 57,18</t>
+          <t>40,69; 54,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,57; 44,78</t>
+          <t>38,7; 63,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,32; 54,03</t>
+          <t>25,27; 34,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,67; 39,37</t>
+          <t>35,99; 45,34</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35,64; 46,95</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27,99; 47,97</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29,05; 37,03</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38,44; 45,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39,96; 49,33</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36,36; 54,02</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,75; 40,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,59; 33,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,22; 40,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,53; 37,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,86; 37,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,55; 32,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31,43%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47,21%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,91; 39,07</t>
+          <t>35,58; 61,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,29; 56,8</t>
+          <t>21,29; 39,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,91; 32,42</t>
+          <t>17,43; 48,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,28; 45,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,51; 32,48</t>
+          <t>37,08; 56,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,77; 48,9</t>
+          <t>27,27; 44,02</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 44,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>39,43; 57,39</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,71; 38,37</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 42,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>39,89; 48,46</t>
+          <t>17,59; 37,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33,25; 40,16</t>
+          <t>17,08; 33,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>41,68; 48,3</t>
+          <t>8,55; 27,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>31,59; 37,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>41,62; 47,17</t>
+          <t>22,1; 41,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>33,26; 37,88</t>
+          <t>20,68; 37,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 33,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>21,74; 36,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 32,31</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 26,69</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>41,38%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49,82%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,88</t>
+          <t>16,28; 36,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18,6; 24,42</t>
+          <t>35,06; 56,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,46; 27,65</t>
+          <t>37,33; 70,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>22,77; 28,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,72; 25,43</t>
+          <t>14,7; 31,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>21,36; 25,41</t>
+          <t>28,24; 45,47</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>35,18; 57,0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 31,11</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>35,32; 48,05</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>39,52; 60,1</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>30,47; 38,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>38,92; 45,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,27; 33,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>37,2; 43,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,01; 35,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>38,93; 43,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>43,97%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>33,68%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>37,4%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>37,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>39,82; 48,65</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>33,27; 40,44</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 38,53</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>32,12; 42,73</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 48,35</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 37,97</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 40,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>33,17; 42,87</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>41,75; 47,12</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 38,3</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 37,98</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>33,95; 41,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 24,1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 23,85</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 17,76</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 20,97</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 27,62</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 27,9</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 22,22</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 25,33</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 24,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>21,02; 24,84</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 18,96</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 21,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>51,84%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>45,85%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>30,66%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>48,21%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>31,4; 39,77</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>38,74; 45,54</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>47,34; 57,19</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>40,18; 52,07</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>27,13; 33,56</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>37,12; 43,03</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 48,29</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 45,97</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>30,51; 35,51</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>38,69; 43,43</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>45,24; 51,65</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 47,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P31-Urba-long_dif.xlsx
+++ b/data/long_dif/P31-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
